--- a/a5/Master.xlsx
+++ b/a5/Master.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2184" windowWidth="20676" windowHeight="7416" activeTab="4"/>
+    <workbookView xWindow="2304" yWindow="2184" windowWidth="20676" windowHeight="7416" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -419,11 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:F1201"/>
   <sheetViews>
-    <sheetView topLeftCell="A1087" workbookViewId="0">
-      <selection activeCell="J1152" sqref="J1152"/>
+    <sheetView topLeftCell="A1171" workbookViewId="0">
+      <selection activeCell="C1201" sqref="C1201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -456,7 +455,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -476,7 +475,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -496,7 +495,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -516,7 +515,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -536,7 +535,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -556,7 +555,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -596,7 +595,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -616,7 +615,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -636,7 +635,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -716,7 +715,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -736,7 +735,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -756,7 +755,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -776,7 +775,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -856,7 +855,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -876,7 +875,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -896,7 +895,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -916,7 +915,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -976,7 +975,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -996,7 +995,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -1016,7 +1015,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -1036,7 +1035,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -1056,7 +1055,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -1076,7 +1075,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -1096,7 +1095,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -1116,7 +1115,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -1136,7 +1135,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -1156,7 +1155,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -1176,7 +1175,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -1196,7 +1195,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -1236,7 +1235,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -1256,7 +1255,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>6</v>
       </c>
@@ -1296,7 +1295,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -1316,7 +1315,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -1336,7 +1335,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -1356,7 +1355,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>6</v>
       </c>
@@ -1376,7 +1375,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>6</v>
       </c>
@@ -1396,7 +1395,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -1416,7 +1415,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -1456,7 +1455,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -1476,7 +1475,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -1496,7 +1495,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>6</v>
       </c>
@@ -1536,7 +1535,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>6</v>
       </c>
@@ -1576,7 +1575,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>6</v>
       </c>
@@ -1616,7 +1615,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>6</v>
       </c>
@@ -1636,7 +1635,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>6</v>
       </c>
@@ -1656,7 +1655,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>6</v>
       </c>
@@ -1676,7 +1675,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>6</v>
       </c>
@@ -1696,7 +1695,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>6</v>
       </c>
@@ -1716,7 +1715,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>6</v>
       </c>
@@ -1736,7 +1735,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>6</v>
       </c>
@@ -1756,7 +1755,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>6</v>
       </c>
@@ -1776,7 +1775,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>6</v>
       </c>
@@ -1836,7 +1835,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>6</v>
       </c>
@@ -1856,7 +1855,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>6</v>
       </c>
@@ -1896,7 +1895,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>6</v>
       </c>
@@ -1936,7 +1935,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>6</v>
       </c>
@@ -1976,7 +1975,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>6</v>
       </c>
@@ -2036,7 +2035,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>6</v>
       </c>
@@ -2076,7 +2075,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>6</v>
       </c>
@@ -2096,7 +2095,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>6</v>
       </c>
@@ -2116,7 +2115,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>6</v>
       </c>
@@ -2136,7 +2135,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>6</v>
       </c>
@@ -2156,7 +2155,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>6</v>
       </c>
@@ -2176,7 +2175,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>6</v>
       </c>
@@ -2196,7 +2195,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>6</v>
       </c>
@@ -2216,7 +2215,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>6</v>
       </c>
@@ -2236,7 +2235,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>6</v>
       </c>
@@ -2256,7 +2255,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>6</v>
       </c>
@@ -2316,7 +2315,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>6</v>
       </c>
@@ -2356,7 +2355,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>6</v>
       </c>
@@ -2376,7 +2375,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>6</v>
       </c>
@@ -2416,7 +2415,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>6</v>
       </c>
@@ -2436,7 +2435,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>6</v>
       </c>
@@ -2456,7 +2455,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>6</v>
       </c>
@@ -2476,7 +2475,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>6</v>
       </c>
@@ -2496,7 +2495,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>6</v>
       </c>
@@ -2516,7 +2515,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>6</v>
       </c>
@@ -2536,7 +2535,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>6</v>
       </c>
@@ -2556,7 +2555,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>6</v>
       </c>
@@ -2576,7 +2575,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>6</v>
       </c>
@@ -2596,7 +2595,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>6</v>
       </c>
@@ -2616,7 +2615,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>6</v>
       </c>
@@ -2676,7 +2675,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>6</v>
       </c>
@@ -2716,7 +2715,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>6</v>
       </c>
@@ -2736,7 +2735,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>6</v>
       </c>
@@ -2756,7 +2755,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>6</v>
       </c>
@@ -2776,7 +2775,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>6</v>
       </c>
@@ -2796,7 +2795,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>6</v>
       </c>
@@ -2816,7 +2815,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>6</v>
       </c>
@@ -2836,7 +2835,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>6</v>
       </c>
@@ -2876,7 +2875,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>11</v>
       </c>
@@ -2896,7 +2895,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>11</v>
       </c>
@@ -2916,7 +2915,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>11</v>
       </c>
@@ -2956,7 +2955,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>11</v>
       </c>
@@ -2976,7 +2975,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>11</v>
       </c>
@@ -3016,7 +3015,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>11</v>
       </c>
@@ -3036,7 +3035,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>11</v>
       </c>
@@ -3056,7 +3055,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>11</v>
       </c>
@@ -3076,7 +3075,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>11</v>
       </c>
@@ -3096,7 +3095,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>11</v>
       </c>
@@ -3116,7 +3115,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>11</v>
       </c>
@@ -3156,7 +3155,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>11</v>
       </c>
@@ -3176,7 +3175,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>11</v>
       </c>
@@ -3216,7 +3215,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>11</v>
       </c>
@@ -3236,7 +3235,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>11</v>
       </c>
@@ -3276,7 +3275,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>11</v>
       </c>
@@ -3296,7 +3295,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>11</v>
       </c>
@@ -3316,7 +3315,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>11</v>
       </c>
@@ -3336,7 +3335,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>11</v>
       </c>
@@ -3356,7 +3355,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>11</v>
       </c>
@@ -3376,7 +3375,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>11</v>
       </c>
@@ -3416,7 +3415,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>11</v>
       </c>
@@ -3436,7 +3435,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>11</v>
       </c>
@@ -3456,7 +3455,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>11</v>
       </c>
@@ -3476,7 +3475,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>11</v>
       </c>
@@ -3516,7 +3515,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>11</v>
       </c>
@@ -3536,7 +3535,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>11</v>
       </c>
@@ -3556,7 +3555,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>11</v>
       </c>
@@ -3576,7 +3575,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>11</v>
       </c>
@@ -3616,7 +3615,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>11</v>
       </c>
@@ -3636,7 +3635,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>11</v>
       </c>
@@ -3656,7 +3655,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>11</v>
       </c>
@@ -3676,7 +3675,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>11</v>
       </c>
@@ -3696,7 +3695,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>11</v>
       </c>
@@ -3716,7 +3715,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>11</v>
       </c>
@@ -3736,7 +3735,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>11</v>
       </c>
@@ -3756,7 +3755,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>11</v>
       </c>
@@ -3776,7 +3775,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>11</v>
       </c>
@@ -3796,7 +3795,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>11</v>
       </c>
@@ -3816,7 +3815,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>11</v>
       </c>
@@ -3836,7 +3835,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>11</v>
       </c>
@@ -3856,7 +3855,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>11</v>
       </c>
@@ -3876,7 +3875,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>11</v>
       </c>
@@ -3896,7 +3895,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>11</v>
       </c>
@@ -3916,7 +3915,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>11</v>
       </c>
@@ -3936,7 +3935,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>11</v>
       </c>
@@ -3956,7 +3955,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>11</v>
       </c>
@@ -3976,7 +3975,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>11</v>
       </c>
@@ -4036,7 +4035,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>11</v>
       </c>
@@ -4056,7 +4055,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>11</v>
       </c>
@@ -4116,7 +4115,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>11</v>
       </c>
@@ -4136,7 +4135,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>11</v>
       </c>
@@ -4156,7 +4155,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>11</v>
       </c>
@@ -4176,7 +4175,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>11</v>
       </c>
@@ -4216,7 +4215,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>11</v>
       </c>
@@ -4256,7 +4255,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>11</v>
       </c>
@@ -4276,7 +4275,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>11</v>
       </c>
@@ -4296,7 +4295,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>11</v>
       </c>
@@ -4316,7 +4315,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>11</v>
       </c>
@@ -4336,7 +4335,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>11</v>
       </c>
@@ -4356,7 +4355,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>11</v>
       </c>
@@ -4376,7 +4375,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>11</v>
       </c>
@@ -4396,7 +4395,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>11</v>
       </c>
@@ -4416,7 +4415,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>11</v>
       </c>
@@ -4496,7 +4495,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>11</v>
       </c>
@@ -4536,7 +4535,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>11</v>
       </c>
@@ -4576,7 +4575,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>11</v>
       </c>
@@ -4596,7 +4595,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>11</v>
       </c>
@@ -4616,7 +4615,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>11</v>
       </c>
@@ -4656,7 +4655,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>11</v>
       </c>
@@ -4676,7 +4675,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>11</v>
       </c>
@@ -4696,7 +4695,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>11</v>
       </c>
@@ -4716,7 +4715,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>11</v>
       </c>
@@ -4736,7 +4735,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>11</v>
       </c>
@@ -4816,7 +4815,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>11</v>
       </c>
@@ -4836,7 +4835,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>11</v>
       </c>
@@ -4856,7 +4855,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>11</v>
       </c>
@@ -4876,7 +4875,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>11</v>
       </c>
@@ -4896,7 +4895,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>11</v>
       </c>
@@ -4956,7 +4955,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="227" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>11</v>
       </c>
@@ -4976,7 +4975,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="228" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>11</v>
       </c>
@@ -4996,7 +4995,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>11</v>
       </c>
@@ -5016,7 +5015,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>11</v>
       </c>
@@ -5056,7 +5055,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>11</v>
       </c>
@@ -5076,7 +5075,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>11</v>
       </c>
@@ -5096,7 +5095,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>11</v>
       </c>
@@ -5136,7 +5135,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="236" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>11</v>
       </c>
@@ -5176,7 +5175,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="238" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>11</v>
       </c>
@@ -5196,7 +5195,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="239" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>11</v>
       </c>
@@ -5256,7 +5255,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="242" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>12</v>
       </c>
@@ -5276,7 +5275,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="243" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>12</v>
       </c>
@@ -5316,7 +5315,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="245" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>12</v>
       </c>
@@ -5336,7 +5335,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="246" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>12</v>
       </c>
@@ -5356,7 +5355,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="247" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>12</v>
       </c>
@@ -5396,7 +5395,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="249" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>12</v>
       </c>
@@ -5416,7 +5415,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="250" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>12</v>
       </c>
@@ -5436,7 +5435,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="251" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>12</v>
       </c>
@@ -5476,7 +5475,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="253" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>12</v>
       </c>
@@ -5516,7 +5515,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="255" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>12</v>
       </c>
@@ -5656,7 +5655,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="262" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>12</v>
       </c>
@@ -5676,7 +5675,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="263" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>12</v>
       </c>
@@ -5736,7 +5735,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="266" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>12</v>
       </c>
@@ -5756,7 +5755,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="267" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>12</v>
       </c>
@@ -5776,7 +5775,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="268" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>12</v>
       </c>
@@ -5796,7 +5795,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="269" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>12</v>
       </c>
@@ -5816,7 +5815,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="270" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>12</v>
       </c>
@@ -5856,7 +5855,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="272" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>12</v>
       </c>
@@ -5876,7 +5875,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="273" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>12</v>
       </c>
@@ -5916,7 +5915,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="275" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>12</v>
       </c>
@@ -5936,7 +5935,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="276" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>12</v>
       </c>
@@ -5976,7 +5975,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="278" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>12</v>
       </c>
@@ -5996,7 +5995,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="279" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>12</v>
       </c>
@@ -6016,7 +6015,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="280" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>12</v>
       </c>
@@ -6036,7 +6035,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="281" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>12</v>
       </c>
@@ -6076,7 +6075,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="283" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>12</v>
       </c>
@@ -6096,7 +6095,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="284" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>12</v>
       </c>
@@ -6116,7 +6115,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="285" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>12</v>
       </c>
@@ -6136,7 +6135,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="286" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>12</v>
       </c>
@@ -6156,7 +6155,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="287" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>12</v>
       </c>
@@ -6176,7 +6175,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="288" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>12</v>
       </c>
@@ -6196,7 +6195,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="289" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>12</v>
       </c>
@@ -6216,7 +6215,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="290" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>12</v>
       </c>
@@ -6236,7 +6235,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="291" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>12</v>
       </c>
@@ -6276,7 +6275,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="293" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>12</v>
       </c>
@@ -6316,7 +6315,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="295" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>12</v>
       </c>
@@ -6336,7 +6335,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="296" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>12</v>
       </c>
@@ -6356,7 +6355,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="297" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>12</v>
       </c>
@@ -6376,7 +6375,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="298" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>12</v>
       </c>
@@ -6416,7 +6415,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="300" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>12</v>
       </c>
@@ -6436,7 +6435,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="301" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>12</v>
       </c>
@@ -6456,7 +6455,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="302" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>12</v>
       </c>
@@ -6496,7 +6495,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="304" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>12</v>
       </c>
@@ -6516,7 +6515,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="305" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>12</v>
       </c>
@@ -6536,7 +6535,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="306" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>12</v>
       </c>
@@ -6556,7 +6555,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="307" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>12</v>
       </c>
@@ -6576,7 +6575,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="308" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>12</v>
       </c>
@@ -6596,7 +6595,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="309" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>12</v>
       </c>
@@ -6616,7 +6615,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="310" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>12</v>
       </c>
@@ -6636,7 +6635,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="311" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>12</v>
       </c>
@@ -6696,7 +6695,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="314" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>12</v>
       </c>
@@ -6716,7 +6715,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="315" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>12</v>
       </c>
@@ -6736,7 +6735,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="316" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>12</v>
       </c>
@@ -6756,7 +6755,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="317" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>12</v>
       </c>
@@ -6776,7 +6775,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="318" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>12</v>
       </c>
@@ -6796,7 +6795,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="319" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>12</v>
       </c>
@@ -6816,7 +6815,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="320" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>12</v>
       </c>
@@ -6836,7 +6835,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="321" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>12</v>
       </c>
@@ -6856,7 +6855,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="322" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>12</v>
       </c>
@@ -6876,7 +6875,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="323" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>12</v>
       </c>
@@ -6896,7 +6895,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="324" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>12</v>
       </c>
@@ -6916,7 +6915,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="325" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>12</v>
       </c>
@@ -6936,7 +6935,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="326" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>12</v>
       </c>
@@ -6956,7 +6955,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="327" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>12</v>
       </c>
@@ -6976,7 +6975,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="328" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>12</v>
       </c>
@@ -7016,7 +7015,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="330" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>12</v>
       </c>
@@ -7036,7 +7035,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="331" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>12</v>
       </c>
@@ -7056,7 +7055,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="332" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>12</v>
       </c>
@@ -7096,7 +7095,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="334" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>12</v>
       </c>
@@ -7116,7 +7115,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="335" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>12</v>
       </c>
@@ -7136,7 +7135,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="336" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>12</v>
       </c>
@@ -7156,7 +7155,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="337" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>12</v>
       </c>
@@ -7176,7 +7175,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="338" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>12</v>
       </c>
@@ -7196,7 +7195,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="339" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>12</v>
       </c>
@@ -7236,7 +7235,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="341" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>12</v>
       </c>
@@ -7256,7 +7255,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="342" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>12</v>
       </c>
@@ -7276,7 +7275,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="343" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>12</v>
       </c>
@@ -7296,7 +7295,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="344" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>12</v>
       </c>
@@ -7316,7 +7315,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="345" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>12</v>
       </c>
@@ -7336,7 +7335,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="346" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>12</v>
       </c>
@@ -7356,7 +7355,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="347" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>12</v>
       </c>
@@ -7396,7 +7395,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="349" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>12</v>
       </c>
@@ -7416,7 +7415,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="350" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>12</v>
       </c>
@@ -7436,7 +7435,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="351" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>12</v>
       </c>
@@ -7456,7 +7455,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="352" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>12</v>
       </c>
@@ -7476,7 +7475,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="353" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>12</v>
       </c>
@@ -7556,7 +7555,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="357" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>12</v>
       </c>
@@ -7576,7 +7575,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="358" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>12</v>
       </c>
@@ -7596,7 +7595,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="359" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>12</v>
       </c>
@@ -7676,7 +7675,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="363" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>13</v>
       </c>
@@ -7696,7 +7695,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="364" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>13</v>
       </c>
@@ -7716,7 +7715,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="365" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>13</v>
       </c>
@@ -7736,7 +7735,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="366" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>13</v>
       </c>
@@ -7756,7 +7755,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="367" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>13</v>
       </c>
@@ -7776,7 +7775,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="368" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>13</v>
       </c>
@@ -7816,7 +7815,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="370" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>13</v>
       </c>
@@ -7836,7 +7835,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="371" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>13</v>
       </c>
@@ -7856,7 +7855,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="372" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>13</v>
       </c>
@@ -7876,7 +7875,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="373" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>13</v>
       </c>
@@ -7896,7 +7895,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="374" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>13</v>
       </c>
@@ -7916,7 +7915,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="375" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>13</v>
       </c>
@@ -7936,7 +7935,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="376" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>13</v>
       </c>
@@ -7956,7 +7955,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="377" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>13</v>
       </c>
@@ -7976,7 +7975,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="378" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>13</v>
       </c>
@@ -8016,7 +8015,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="380" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>13</v>
       </c>
@@ -8056,7 +8055,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="382" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>13</v>
       </c>
@@ -8076,7 +8075,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="383" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>13</v>
       </c>
@@ -8116,7 +8115,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="385" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>13</v>
       </c>
@@ -8136,7 +8135,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="386" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>13</v>
       </c>
@@ -8156,7 +8155,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="387" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>13</v>
       </c>
@@ -8176,7 +8175,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="388" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>13</v>
       </c>
@@ -8196,7 +8195,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="389" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>13</v>
       </c>
@@ -8236,7 +8235,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="391" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>13</v>
       </c>
@@ -8256,7 +8255,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="392" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>13</v>
       </c>
@@ -8276,7 +8275,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="393" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>13</v>
       </c>
@@ -8296,7 +8295,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="394" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>13</v>
       </c>
@@ -8316,7 +8315,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="395" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>13</v>
       </c>
@@ -8336,7 +8335,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="396" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>13</v>
       </c>
@@ -8356,7 +8355,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="397" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>13</v>
       </c>
@@ -8376,7 +8375,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="398" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>13</v>
       </c>
@@ -8416,7 +8415,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="400" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>13</v>
       </c>
@@ -8436,7 +8435,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="401" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>13</v>
       </c>
@@ -8456,7 +8455,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="402" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>13</v>
       </c>
@@ -8476,7 +8475,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="403" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>13</v>
       </c>
@@ -8496,7 +8495,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="404" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>13</v>
       </c>
@@ -8536,7 +8535,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="406" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>13</v>
       </c>
@@ -8556,7 +8555,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="407" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>13</v>
       </c>
@@ -8576,7 +8575,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="408" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>13</v>
       </c>
@@ -8596,7 +8595,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="409" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>13</v>
       </c>
@@ -8616,7 +8615,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="410" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>13</v>
       </c>
@@ -8636,7 +8635,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="411" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>13</v>
       </c>
@@ -8656,7 +8655,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="412" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>13</v>
       </c>
@@ -8696,7 +8695,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="414" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>13</v>
       </c>
@@ -8716,7 +8715,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="415" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>13</v>
       </c>
@@ -8736,7 +8735,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="416" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>13</v>
       </c>
@@ -8776,7 +8775,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="418" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>13</v>
       </c>
@@ -8796,7 +8795,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="419" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>13</v>
       </c>
@@ -8836,7 +8835,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="421" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>13</v>
       </c>
@@ -8856,7 +8855,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="422" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>13</v>
       </c>
@@ -8876,7 +8875,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="423" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>13</v>
       </c>
@@ -8896,7 +8895,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="424" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>13</v>
       </c>
@@ -8916,7 +8915,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="425" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>13</v>
       </c>
@@ -8956,7 +8955,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="427" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>13</v>
       </c>
@@ -8996,7 +8995,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="429" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>13</v>
       </c>
@@ -9016,7 +9015,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="430" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>13</v>
       </c>
@@ -9036,7 +9035,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="431" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>13</v>
       </c>
@@ -9076,7 +9075,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="433" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>13</v>
       </c>
@@ -9096,7 +9095,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="434" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>13</v>
       </c>
@@ -9116,7 +9115,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="435" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>13</v>
       </c>
@@ -9176,7 +9175,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="438" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>13</v>
       </c>
@@ -9216,7 +9215,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="440" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>13</v>
       </c>
@@ -9236,7 +9235,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="441" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>13</v>
       </c>
@@ -9276,7 +9275,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="443" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>13</v>
       </c>
@@ -9296,7 +9295,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="444" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>13</v>
       </c>
@@ -9316,7 +9315,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="445" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>13</v>
       </c>
@@ -9336,7 +9335,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="446" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>13</v>
       </c>
@@ -9356,7 +9355,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="447" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>13</v>
       </c>
@@ -9376,7 +9375,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="448" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>13</v>
       </c>
@@ -9396,7 +9395,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="449" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>13</v>
       </c>
@@ -9416,7 +9415,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="450" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>13</v>
       </c>
@@ -9436,7 +9435,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="451" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>13</v>
       </c>
@@ -9456,7 +9455,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="452" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>13</v>
       </c>
@@ -9496,7 +9495,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="454" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>13</v>
       </c>
@@ -9516,7 +9515,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="455" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>13</v>
       </c>
@@ -9576,7 +9575,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="458" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>13</v>
       </c>
@@ -9616,7 +9615,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="460" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>13</v>
       </c>
@@ -9636,7 +9635,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="461" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>13</v>
       </c>
@@ -9656,7 +9655,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="462" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>13</v>
       </c>
@@ -9676,7 +9675,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="463" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>13</v>
       </c>
@@ -9716,7 +9715,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="465" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>13</v>
       </c>
@@ -9736,7 +9735,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="466" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>13</v>
       </c>
@@ -9756,7 +9755,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="467" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>13</v>
       </c>
@@ -9776,7 +9775,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="468" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>13</v>
       </c>
@@ -9816,7 +9815,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="470" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>13</v>
       </c>
@@ -9856,7 +9855,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="472" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>13</v>
       </c>
@@ -9896,7 +9895,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="474" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>13</v>
       </c>
@@ -9936,7 +9935,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="476" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>13</v>
       </c>
@@ -9956,7 +9955,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="477" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>13</v>
       </c>
@@ -10016,7 +10015,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="480" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>13</v>
       </c>
@@ -10036,7 +10035,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="481" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>13</v>
       </c>
@@ -10076,7 +10075,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="483" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>14</v>
       </c>
@@ -10156,7 +10155,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="487" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>14</v>
       </c>
@@ -10176,7 +10175,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="488" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>14</v>
       </c>
@@ -10216,7 +10215,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="490" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>14</v>
       </c>
@@ -10236,7 +10235,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="491" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>14</v>
       </c>
@@ -10256,7 +10255,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="492" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>14</v>
       </c>
@@ -10276,7 +10275,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="493" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>14</v>
       </c>
@@ -10296,7 +10295,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="494" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>14</v>
       </c>
@@ -10316,7 +10315,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="495" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>14</v>
       </c>
@@ -10336,7 +10335,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="496" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>14</v>
       </c>
@@ -10356,7 +10355,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="497" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>14</v>
       </c>
@@ -10376,7 +10375,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="498" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>14</v>
       </c>
@@ -10396,7 +10395,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="499" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>14</v>
       </c>
@@ -10436,7 +10435,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="501" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>14</v>
       </c>
@@ -10456,7 +10455,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="502" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>14</v>
       </c>
@@ -10476,7 +10475,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="503" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>14</v>
       </c>
@@ -10496,7 +10495,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="504" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>14</v>
       </c>
@@ -10536,7 +10535,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="506" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>14</v>
       </c>
@@ -10556,7 +10555,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="507" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>14</v>
       </c>
@@ -10576,7 +10575,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="508" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>14</v>
       </c>
@@ -10596,7 +10595,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="509" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>14</v>
       </c>
@@ -10616,7 +10615,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="510" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>14</v>
       </c>
@@ -10636,7 +10635,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="511" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>14</v>
       </c>
@@ -10676,7 +10675,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="513" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>14</v>
       </c>
@@ -10696,7 +10695,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="514" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>14</v>
       </c>
@@ -10716,7 +10715,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="515" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>14</v>
       </c>
@@ -10756,7 +10755,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="517" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>14</v>
       </c>
@@ -10816,7 +10815,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="520" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>14</v>
       </c>
@@ -10836,7 +10835,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="521" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>14</v>
       </c>
@@ -10876,7 +10875,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="523" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>14</v>
       </c>
@@ -10916,7 +10915,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="525" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>14</v>
       </c>
@@ -10936,7 +10935,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="526" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>14</v>
       </c>
@@ -10956,7 +10955,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="527" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>14</v>
       </c>
@@ -10976,7 +10975,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="528" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>14</v>
       </c>
@@ -10996,7 +10995,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="529" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>14</v>
       </c>
@@ -11016,7 +11015,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="530" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>14</v>
       </c>
@@ -11036,7 +11035,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="531" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>14</v>
       </c>
@@ -11056,7 +11055,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="532" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>14</v>
       </c>
@@ -11076,7 +11075,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="533" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>14</v>
       </c>
@@ -11096,7 +11095,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="534" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>14</v>
       </c>
@@ -11176,7 +11175,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="538" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>14</v>
       </c>
@@ -11196,7 +11195,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="539" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>14</v>
       </c>
@@ -11236,7 +11235,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="541" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>14</v>
       </c>
@@ -11256,7 +11255,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="542" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>14</v>
       </c>
@@ -11276,7 +11275,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="543" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>14</v>
       </c>
@@ -11316,7 +11315,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="545" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>14</v>
       </c>
@@ -11356,7 +11355,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="547" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>14</v>
       </c>
@@ -11376,7 +11375,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="548" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>14</v>
       </c>
@@ -11396,7 +11395,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="549" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>14</v>
       </c>
@@ -11416,7 +11415,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="550" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>14</v>
       </c>
@@ -11456,7 +11455,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="552" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>14</v>
       </c>
@@ -11476,7 +11475,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="553" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>14</v>
       </c>
@@ -11496,7 +11495,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="554" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>14</v>
       </c>
@@ -11536,7 +11535,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="556" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>14</v>
       </c>
@@ -11556,7 +11555,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="557" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>14</v>
       </c>
@@ -11576,7 +11575,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="558" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>14</v>
       </c>
@@ -11596,7 +11595,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="559" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>14</v>
       </c>
@@ -11616,7 +11615,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="560" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>14</v>
       </c>
@@ -11636,7 +11635,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="561" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>14</v>
       </c>
@@ -11656,7 +11655,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="562" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>14</v>
       </c>
@@ -11676,7 +11675,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="563" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>14</v>
       </c>
@@ -11696,7 +11695,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="564" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>14</v>
       </c>
@@ -11716,7 +11715,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="565" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>14</v>
       </c>
@@ -11736,7 +11735,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="566" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>14</v>
       </c>
@@ -11756,7 +11755,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="567" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>14</v>
       </c>
@@ -11776,7 +11775,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="568" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>14</v>
       </c>
@@ -11796,7 +11795,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="569" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>14</v>
       </c>
@@ -11836,7 +11835,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="571" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>14</v>
       </c>
@@ -11876,7 +11875,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="573" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>14</v>
       </c>
@@ -11896,7 +11895,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="574" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>14</v>
       </c>
@@ -11936,7 +11935,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="576" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>14</v>
       </c>
@@ -11956,7 +11955,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="577" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>14</v>
       </c>
@@ -11976,7 +11975,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="578" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>14</v>
       </c>
@@ -11996,7 +11995,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="579" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>14</v>
       </c>
@@ -12036,7 +12035,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="581" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>14</v>
       </c>
@@ -12056,7 +12055,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="582" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>14</v>
       </c>
@@ -12076,7 +12075,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="583" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>14</v>
       </c>
@@ -12096,7 +12095,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="584" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>14</v>
       </c>
@@ -12116,7 +12115,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="585" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>14</v>
       </c>
@@ -12136,7 +12135,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="586" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>14</v>
       </c>
@@ -12156,7 +12155,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="587" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>14</v>
       </c>
@@ -12176,7 +12175,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="588" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>14</v>
       </c>
@@ -12216,7 +12215,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="590" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>14</v>
       </c>
@@ -12236,7 +12235,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="591" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>14</v>
       </c>
@@ -12256,7 +12255,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="592" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>14</v>
       </c>
@@ -12276,7 +12275,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="593" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>14</v>
       </c>
@@ -12296,7 +12295,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="594" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>14</v>
       </c>
@@ -12336,7 +12335,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="596" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>14</v>
       </c>
@@ -12376,7 +12375,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="598" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>14</v>
       </c>
@@ -12456,7 +12455,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="602" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>15</v>
       </c>
@@ -12476,7 +12475,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="603" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>15</v>
       </c>
@@ -12496,7 +12495,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="604" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>15</v>
       </c>
@@ -12536,7 +12535,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="606" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>15</v>
       </c>
@@ -12556,7 +12555,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="607" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>15</v>
       </c>
@@ -12576,7 +12575,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="608" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>15</v>
       </c>
@@ -12596,7 +12595,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="609" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>15</v>
       </c>
@@ -12636,7 +12635,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="611" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>15</v>
       </c>
@@ -12656,7 +12655,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="612" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>15</v>
       </c>
@@ -12676,7 +12675,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="613" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>15</v>
       </c>
@@ -12696,7 +12695,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="614" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>15</v>
       </c>
@@ -12716,7 +12715,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="615" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
         <v>15</v>
       </c>
@@ -12756,7 +12755,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="617" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>15</v>
       </c>
@@ -12776,7 +12775,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="618" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>15</v>
       </c>
@@ -12796,7 +12795,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="619" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>15</v>
       </c>
@@ -12816,7 +12815,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="620" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
         <v>15</v>
       </c>
@@ -12836,7 +12835,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="621" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
         <v>15</v>
       </c>
@@ -12856,7 +12855,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="622" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
         <v>15</v>
       </c>
@@ -12876,7 +12875,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="623" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
         <v>15</v>
       </c>
@@ -12896,7 +12895,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="624" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
         <v>15</v>
       </c>
@@ -12956,7 +12955,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="627" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
         <v>15</v>
       </c>
@@ -12976,7 +12975,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="628" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
         <v>15</v>
       </c>
@@ -13016,7 +13015,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="630" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
         <v>15</v>
       </c>
@@ -13056,7 +13055,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="632" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
         <v>15</v>
       </c>
@@ -13096,7 +13095,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="634" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
         <v>15</v>
       </c>
@@ -13116,7 +13115,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="635" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
         <v>15</v>
       </c>
@@ -13136,7 +13135,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="636" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
         <v>15</v>
       </c>
@@ -13176,7 +13175,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="638" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
         <v>15</v>
       </c>
@@ -13256,7 +13255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="642" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
         <v>15</v>
       </c>
@@ -13276,7 +13275,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="643" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
         <v>15</v>
       </c>
@@ -13296,7 +13295,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="644" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
         <v>15</v>
       </c>
@@ -13316,7 +13315,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="645" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
         <v>15</v>
       </c>
@@ -13336,7 +13335,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="646" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
         <v>15</v>
       </c>
@@ -13356,7 +13355,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="647" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
         <v>15</v>
       </c>
@@ -13376,7 +13375,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="648" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
         <v>15</v>
       </c>
@@ -13396,7 +13395,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="649" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
         <v>15</v>
       </c>
@@ -13416,7 +13415,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="650" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
         <v>15</v>
       </c>
@@ -13436,7 +13435,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="651" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
         <v>15</v>
       </c>
@@ -13456,7 +13455,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="652" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
         <v>15</v>
       </c>
@@ -13476,7 +13475,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="653" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
         <v>15</v>
       </c>
@@ -13496,7 +13495,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="654" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
         <v>15</v>
       </c>
@@ -13516,7 +13515,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="655" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
         <v>15</v>
       </c>
@@ -13536,7 +13535,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="656" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
         <v>15</v>
       </c>
@@ -13576,7 +13575,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="658" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
         <v>15</v>
       </c>
@@ -13596,7 +13595,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="659" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
         <v>15</v>
       </c>
@@ -13636,7 +13635,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="661" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
         <v>15</v>
       </c>
@@ -13656,7 +13655,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="662" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
         <v>15</v>
       </c>
@@ -13676,7 +13675,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="663" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
         <v>15</v>
       </c>
@@ -13716,7 +13715,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="665" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
         <v>15</v>
       </c>
@@ -13736,7 +13735,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="666" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
         <v>15</v>
       </c>
@@ -13756,7 +13755,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="667" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
         <v>15</v>
       </c>
@@ -13836,7 +13835,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="671" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
         <v>15</v>
       </c>
@@ -13856,7 +13855,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="672" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
         <v>15</v>
       </c>
@@ -13876,7 +13875,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="673" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
         <v>15</v>
       </c>
@@ -13896,7 +13895,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="674" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
         <v>15</v>
       </c>
@@ -13916,7 +13915,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="675" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
         <v>15</v>
       </c>
@@ -13956,7 +13955,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="677" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
         <v>15</v>
       </c>
@@ -13976,7 +13975,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="678" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
         <v>15</v>
       </c>
@@ -13996,7 +13995,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="679" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
         <v>15</v>
       </c>
@@ -14016,7 +14015,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="680" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
         <v>15</v>
       </c>
@@ -14036,7 +14035,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="681" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
         <v>15</v>
       </c>
@@ -14076,7 +14075,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="683" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
         <v>15</v>
       </c>
@@ -14096,7 +14095,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="684" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
         <v>15</v>
       </c>
@@ -14156,7 +14155,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="687" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
         <v>15</v>
       </c>
@@ -14176,7 +14175,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="688" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
         <v>15</v>
       </c>
@@ -14196,7 +14195,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="689" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
         <v>15</v>
       </c>
@@ -14216,7 +14215,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="690" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
         <v>15</v>
       </c>
@@ -14256,7 +14255,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="692" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
         <v>15</v>
       </c>
@@ -14276,7 +14275,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="693" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
         <v>15</v>
       </c>
@@ -14296,7 +14295,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="694" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
         <v>15</v>
       </c>
@@ -14336,7 +14335,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="696" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
         <v>15</v>
       </c>
@@ -14356,7 +14355,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="697" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
         <v>15</v>
       </c>
@@ -14396,7 +14395,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="699" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
         <v>15</v>
       </c>
@@ -14416,7 +14415,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="700" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
         <v>15</v>
       </c>
@@ -14436,7 +14435,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="701" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
         <v>15</v>
       </c>
@@ -14476,7 +14475,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="703" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
         <v>15</v>
       </c>
@@ -14496,7 +14495,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="704" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A704" t="s">
         <v>15</v>
       </c>
@@ -14516,7 +14515,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="705" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
         <v>15</v>
       </c>
@@ -14556,7 +14555,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="707" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
         <v>15</v>
       </c>
@@ -14576,7 +14575,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="708" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
         <v>15</v>
       </c>
@@ -14596,7 +14595,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="709" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A709" t="s">
         <v>15</v>
       </c>
@@ -14616,7 +14615,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="710" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
         <v>15</v>
       </c>
@@ -14636,7 +14635,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="711" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
         <v>15</v>
       </c>
@@ -14656,7 +14655,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="712" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
         <v>15</v>
       </c>
@@ -14676,7 +14675,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="713" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
         <v>15</v>
       </c>
@@ -14696,7 +14695,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="714" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
         <v>15</v>
       </c>
@@ -14756,7 +14755,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="717" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
         <v>15</v>
       </c>
@@ -14776,7 +14775,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="718" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
         <v>15</v>
       </c>
@@ -14796,7 +14795,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="719" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
         <v>15</v>
       </c>
@@ -14816,7 +14815,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="720" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A720" t="s">
         <v>15</v>
       </c>
@@ -14836,7 +14835,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="721" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
         <v>15</v>
       </c>
@@ -14876,7 +14875,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="723" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A723" t="s">
         <v>16</v>
       </c>
@@ -14896,7 +14895,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="724" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A724" t="s">
         <v>16</v>
       </c>
@@ -14936,7 +14935,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="726" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A726" t="s">
         <v>16</v>
       </c>
@@ -14956,7 +14955,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="727" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A727" t="s">
         <v>16</v>
       </c>
@@ -14976,7 +14975,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="728" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A728" t="s">
         <v>16</v>
       </c>
@@ -14996,7 +14995,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="729" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A729" t="s">
         <v>16</v>
       </c>
@@ -15016,7 +15015,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="730" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A730" t="s">
         <v>16</v>
       </c>
@@ -15056,7 +15055,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="732" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A732" t="s">
         <v>16</v>
       </c>
@@ -15076,7 +15075,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="733" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A733" t="s">
         <v>16</v>
       </c>
@@ -15096,7 +15095,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="734" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A734" t="s">
         <v>16</v>
       </c>
@@ -15136,7 +15135,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="736" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A736" t="s">
         <v>16</v>
       </c>
@@ -15196,7 +15195,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="739" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A739" t="s">
         <v>16</v>
       </c>
@@ -15236,7 +15235,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="741" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A741" t="s">
         <v>16</v>
       </c>
@@ -15296,7 +15295,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="744" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A744" t="s">
         <v>16</v>
       </c>
@@ -15316,7 +15315,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="745" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A745" t="s">
         <v>16</v>
       </c>
@@ -15336,7 +15335,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="746" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A746" t="s">
         <v>16</v>
       </c>
@@ -15356,7 +15355,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="747" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A747" t="s">
         <v>16</v>
       </c>
@@ -15396,7 +15395,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="749" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A749" t="s">
         <v>16</v>
       </c>
@@ -15436,7 +15435,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="751" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A751" t="s">
         <v>16</v>
       </c>
@@ -15456,7 +15455,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="752" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A752" t="s">
         <v>16</v>
       </c>
@@ -15476,7 +15475,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="753" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A753" t="s">
         <v>16</v>
       </c>
@@ -15496,7 +15495,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="754" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A754" t="s">
         <v>16</v>
       </c>
@@ -15516,7 +15515,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="755" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A755" t="s">
         <v>16</v>
       </c>
@@ -15536,7 +15535,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="756" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A756" t="s">
         <v>16</v>
       </c>
@@ -15556,7 +15555,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="757" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A757" t="s">
         <v>16</v>
       </c>
@@ -15576,7 +15575,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="758" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A758" t="s">
         <v>16</v>
       </c>
@@ -15596,7 +15595,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="759" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A759" t="s">
         <v>16</v>
       </c>
@@ -15636,7 +15635,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="761" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A761" t="s">
         <v>16</v>
       </c>
@@ -15656,7 +15655,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="762" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A762" t="s">
         <v>16</v>
       </c>
@@ -15676,7 +15675,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="763" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A763" t="s">
         <v>16</v>
       </c>
@@ -15696,7 +15695,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="764" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A764" t="s">
         <v>16</v>
       </c>
@@ -15716,7 +15715,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="765" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A765" t="s">
         <v>16</v>
       </c>
@@ -15756,7 +15755,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="767" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A767" t="s">
         <v>16</v>
       </c>
@@ -15796,7 +15795,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="769" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A769" t="s">
         <v>16</v>
       </c>
@@ -15816,7 +15815,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="770" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A770" t="s">
         <v>16</v>
       </c>
@@ -15856,7 +15855,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="772" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A772" t="s">
         <v>16</v>
       </c>
@@ -15876,7 +15875,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="773" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A773" t="s">
         <v>16</v>
       </c>
@@ -15896,7 +15895,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="774" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A774" t="s">
         <v>16</v>
       </c>
@@ -15916,7 +15915,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="775" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A775" t="s">
         <v>16</v>
       </c>
@@ -15936,7 +15935,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="776" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A776" t="s">
         <v>16</v>
       </c>
@@ -15956,7 +15955,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="777" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A777" t="s">
         <v>16</v>
       </c>
@@ -15976,7 +15975,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="778" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A778" t="s">
         <v>16</v>
       </c>
@@ -15996,7 +15995,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="779" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A779" t="s">
         <v>16</v>
       </c>
@@ -16016,7 +16015,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="780" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A780" t="s">
         <v>16</v>
       </c>
@@ -16036,7 +16035,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="781" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A781" t="s">
         <v>16</v>
       </c>
@@ -16056,7 +16055,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="782" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A782" t="s">
         <v>16</v>
       </c>
@@ -16076,7 +16075,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="783" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A783" t="s">
         <v>16</v>
       </c>
@@ -16096,7 +16095,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="784" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A784" t="s">
         <v>16</v>
       </c>
@@ -16116,7 +16115,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="785" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A785" t="s">
         <v>16</v>
       </c>
@@ -16136,7 +16135,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="786" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A786" t="s">
         <v>16</v>
       </c>
@@ -16176,7 +16175,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="788" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A788" t="s">
         <v>16</v>
       </c>
@@ -16196,7 +16195,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="789" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A789" t="s">
         <v>16</v>
       </c>
@@ -16216,7 +16215,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="790" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A790" t="s">
         <v>16</v>
       </c>
@@ -16236,7 +16235,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="791" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A791" t="s">
         <v>16</v>
       </c>
@@ -16256,7 +16255,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="792" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A792" t="s">
         <v>16</v>
       </c>
@@ -16276,7 +16275,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="793" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A793" t="s">
         <v>16</v>
       </c>
@@ -16296,7 +16295,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="794" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A794" t="s">
         <v>16</v>
       </c>
@@ -16316,7 +16315,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="795" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A795" t="s">
         <v>16</v>
       </c>
@@ -16336,7 +16335,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="796" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A796" t="s">
         <v>16</v>
       </c>
@@ -16376,7 +16375,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="798" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A798" t="s">
         <v>16</v>
       </c>
@@ -16396,7 +16395,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="799" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A799" t="s">
         <v>16</v>
       </c>
@@ -16436,7 +16435,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="801" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A801" t="s">
         <v>16</v>
       </c>
@@ -16476,7 +16475,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="803" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A803" t="s">
         <v>16</v>
       </c>
@@ -16496,7 +16495,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="804" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A804" t="s">
         <v>16</v>
       </c>
@@ -16516,7 +16515,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="805" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A805" t="s">
         <v>16</v>
       </c>
@@ -16536,7 +16535,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="806" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A806" t="s">
         <v>16</v>
       </c>
@@ -16556,7 +16555,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="807" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A807" t="s">
         <v>16</v>
       </c>
@@ -16576,7 +16575,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="808" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A808" t="s">
         <v>16</v>
       </c>
@@ -16596,7 +16595,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="809" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A809" t="s">
         <v>16</v>
       </c>
@@ -16616,7 +16615,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="810" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A810" t="s">
         <v>16</v>
       </c>
@@ -16636,7 +16635,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="811" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A811" t="s">
         <v>16</v>
       </c>
@@ -16656,7 +16655,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="812" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A812" t="s">
         <v>16</v>
       </c>
@@ -16696,7 +16695,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="814" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A814" t="s">
         <v>16</v>
       </c>
@@ -16716,7 +16715,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="815" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A815" t="s">
         <v>16</v>
       </c>
@@ -16736,7 +16735,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="816" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A816" t="s">
         <v>16</v>
       </c>
@@ -16756,7 +16755,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="817" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A817" t="s">
         <v>16</v>
       </c>
@@ -16916,7 +16915,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="825" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A825" t="s">
         <v>16</v>
       </c>
@@ -16956,7 +16955,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="827" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A827" t="s">
         <v>16</v>
       </c>
@@ -16976,7 +16975,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="828" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A828" t="s">
         <v>16</v>
       </c>
@@ -16996,7 +16995,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="829" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A829" t="s">
         <v>16</v>
       </c>
@@ -17016,7 +17015,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="830" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A830" t="s">
         <v>16</v>
       </c>
@@ -17036,7 +17035,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="831" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A831" t="s">
         <v>16</v>
       </c>
@@ -17056,7 +17055,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="832" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A832" t="s">
         <v>16</v>
       </c>
@@ -17096,7 +17095,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="834" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A834" t="s">
         <v>16</v>
       </c>
@@ -17116,7 +17115,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="835" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A835" t="s">
         <v>16</v>
       </c>
@@ -17136,7 +17135,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="836" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A836" t="s">
         <v>16</v>
       </c>
@@ -17156,7 +17155,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="837" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A837" t="s">
         <v>16</v>
       </c>
@@ -17196,7 +17195,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="839" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A839" t="s">
         <v>16</v>
       </c>
@@ -17216,7 +17215,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="840" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A840" t="s">
         <v>16</v>
       </c>
@@ -17236,7 +17235,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="841" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A841" t="s">
         <v>16</v>
       </c>
@@ -17276,7 +17275,7 @@
         <v>0.61994559999999999</v>
       </c>
     </row>
-    <row r="843" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A843" t="s">
         <v>17</v>
       </c>
@@ -17316,7 +17315,7 @@
         <v>0.9342878</v>
       </c>
     </row>
-    <row r="845" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A845" t="s">
         <v>17</v>
       </c>
@@ -17336,7 +17335,7 @@
         <v>0.7250953</v>
       </c>
     </row>
-    <row r="846" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A846" t="s">
         <v>17</v>
       </c>
@@ -17356,7 +17355,7 @@
         <v>0.89863550000000003</v>
       </c>
     </row>
-    <row r="847" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A847" t="s">
         <v>17</v>
       </c>
@@ -17376,7 +17375,7 @@
         <v>0.27856979999999998</v>
       </c>
     </row>
-    <row r="848" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A848" t="s">
         <v>17</v>
       </c>
@@ -17396,7 +17395,7 @@
         <v>0.71879590000000004</v>
       </c>
     </row>
-    <row r="849" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A849" t="s">
         <v>17</v>
       </c>
@@ -17416,7 +17415,7 @@
         <v>0.78614580000000001</v>
       </c>
     </row>
-    <row r="850" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A850" t="s">
         <v>17</v>
       </c>
@@ -17436,7 +17435,7 @@
         <v>0.2359986</v>
       </c>
     </row>
-    <row r="851" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A851" t="s">
         <v>17</v>
       </c>
@@ -17456,7 +17455,7 @@
         <v>5.7714799999999997E-2</v>
       </c>
     </row>
-    <row r="852" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A852" t="s">
         <v>17</v>
       </c>
@@ -17476,7 +17475,7 @@
         <v>0.67531969999999997</v>
       </c>
     </row>
-    <row r="853" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A853" t="s">
         <v>17</v>
       </c>
@@ -17496,7 +17495,7 @@
         <v>0.38617509999999999</v>
       </c>
     </row>
-    <row r="854" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A854" t="s">
         <v>17</v>
       </c>
@@ -17516,7 +17515,7 @@
         <v>0.46073819999999999</v>
       </c>
     </row>
-    <row r="855" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A855" t="s">
         <v>17</v>
       </c>
@@ -17536,7 +17535,7 @@
         <v>0.26941809999999999</v>
       </c>
     </row>
-    <row r="856" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A856" t="s">
         <v>17</v>
       </c>
@@ -17556,7 +17555,7 @@
         <v>0.30218109999999998</v>
       </c>
     </row>
-    <row r="857" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A857" t="s">
         <v>17</v>
       </c>
@@ -17576,7 +17575,7 @@
         <v>0.95614069999999995</v>
       </c>
     </row>
-    <row r="858" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A858" t="s">
         <v>17</v>
       </c>
@@ -17596,7 +17595,7 @@
         <v>0.98343440000000004</v>
       </c>
     </row>
-    <row r="859" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A859" t="s">
         <v>17</v>
       </c>
@@ -17616,7 +17615,7 @@
         <v>0.32737709999999998</v>
       </c>
     </row>
-    <row r="860" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A860" t="s">
         <v>17</v>
       </c>
@@ -17636,7 +17635,7 @@
         <v>0.22849359999999999</v>
       </c>
     </row>
-    <row r="861" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A861" t="s">
         <v>17</v>
       </c>
@@ -17656,7 +17655,7 @@
         <v>0.89464010000000005</v>
       </c>
     </row>
-    <row r="862" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A862" t="s">
         <v>17</v>
       </c>
@@ -17676,7 +17675,7 @@
         <v>0.36062689999999997</v>
       </c>
     </row>
-    <row r="863" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A863" t="s">
         <v>17</v>
       </c>
@@ -17696,7 +17695,7 @@
         <v>0.48518210000000001</v>
       </c>
     </row>
-    <row r="864" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A864" t="s">
         <v>17</v>
       </c>
@@ -17716,7 +17715,7 @@
         <v>0.42958590000000002</v>
       </c>
     </row>
-    <row r="865" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A865" t="s">
         <v>17</v>
       </c>
@@ -17756,7 +17755,7 @@
         <v>0.49862099999999998</v>
       </c>
     </row>
-    <row r="867" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A867" t="s">
         <v>17</v>
       </c>
@@ -17796,7 +17795,7 @@
         <v>0.1127162</v>
       </c>
     </row>
-    <row r="869" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A869" t="s">
         <v>17</v>
       </c>
@@ -17816,7 +17815,7 @@
         <v>0.8020777</v>
       </c>
     </row>
-    <row r="870" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A870" t="s">
         <v>17</v>
       </c>
@@ -17856,7 +17855,7 @@
         <v>0.94332879999999997</v>
       </c>
     </row>
-    <row r="872" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A872" t="s">
         <v>17</v>
       </c>
@@ -17916,7 +17915,7 @@
         <v>0.50829100000000005</v>
       </c>
     </row>
-    <row r="875" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A875" t="s">
         <v>17</v>
       </c>
@@ -17936,7 +17935,7 @@
         <v>0.58720099999999997</v>
       </c>
     </row>
-    <row r="876" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A876" t="s">
         <v>17</v>
       </c>
@@ -17956,7 +17955,7 @@
         <v>0.4914422</v>
       </c>
     </row>
-    <row r="877" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A877" t="s">
         <v>17</v>
       </c>
@@ -17976,7 +17975,7 @@
         <v>6.5971199999999994E-2</v>
       </c>
     </row>
-    <row r="878" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A878" t="s">
         <v>17</v>
       </c>
@@ -18036,7 +18035,7 @@
         <v>1.08583E-2</v>
       </c>
     </row>
-    <row r="881" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A881" t="s">
         <v>17</v>
       </c>
@@ -18056,7 +18055,7 @@
         <v>0.72404579999999996</v>
       </c>
     </row>
-    <row r="882" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A882" t="s">
         <v>17</v>
       </c>
@@ -18076,7 +18075,7 @@
         <v>0.49740830000000003</v>
       </c>
     </row>
-    <row r="883" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A883" t="s">
         <v>17</v>
       </c>
@@ -18096,7 +18095,7 @@
         <v>0.33076159999999999</v>
       </c>
     </row>
-    <row r="884" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A884" t="s">
         <v>17</v>
       </c>
@@ -18116,7 +18115,7 @@
         <v>0.17378950000000001</v>
       </c>
     </row>
-    <row r="885" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A885" t="s">
         <v>17</v>
       </c>
@@ -18156,7 +18155,7 @@
         <v>0.85763599999999995</v>
       </c>
     </row>
-    <row r="887" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A887" t="s">
         <v>17</v>
       </c>
@@ -18176,7 +18175,7 @@
         <v>0.35783559999999998</v>
       </c>
     </row>
-    <row r="888" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A888" t="s">
         <v>17</v>
       </c>
@@ -18196,7 +18195,7 @@
         <v>5.2000600000000001E-2</v>
       </c>
     </row>
-    <row r="889" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A889" t="s">
         <v>17</v>
       </c>
@@ -18216,7 +18215,7 @@
         <v>0.21873690000000001</v>
       </c>
     </row>
-    <row r="890" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A890" t="s">
         <v>17</v>
       </c>
@@ -18236,7 +18235,7 @@
         <v>0.16693259999999999</v>
       </c>
     </row>
-    <row r="891" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A891" t="s">
         <v>17</v>
       </c>
@@ -18256,7 +18255,7 @@
         <v>0.63164659999999995</v>
       </c>
     </row>
-    <row r="892" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A892" t="s">
         <v>17</v>
       </c>
@@ -18316,7 +18315,7 @@
         <v>0.61205169999999998</v>
       </c>
     </row>
-    <row r="895" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A895" t="s">
         <v>17</v>
       </c>
@@ -18336,7 +18335,7 @@
         <v>0.10216980000000001</v>
       </c>
     </row>
-    <row r="896" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A896" t="s">
         <v>17</v>
       </c>
@@ -18356,7 +18355,7 @@
         <v>0.43962509999999999</v>
       </c>
     </row>
-    <row r="897" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A897" t="s">
         <v>17</v>
       </c>
@@ -18376,7 +18375,7 @@
         <v>0.43532530000000003</v>
       </c>
     </row>
-    <row r="898" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A898" t="s">
         <v>17</v>
       </c>
@@ -18396,7 +18395,7 @@
         <v>0.25150939999999999</v>
       </c>
     </row>
-    <row r="899" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A899" t="s">
         <v>17</v>
       </c>
@@ -18416,7 +18415,7 @@
         <v>0.71842200000000001</v>
       </c>
     </row>
-    <row r="900" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A900" t="s">
         <v>17</v>
       </c>
@@ -18436,7 +18435,7 @@
         <v>9.2752399999999999E-2</v>
       </c>
     </row>
-    <row r="901" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A901" t="s">
         <v>17</v>
       </c>
@@ -18476,7 +18475,7 @@
         <v>2.0279200000000001E-2</v>
       </c>
     </row>
-    <row r="903" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A903" t="s">
         <v>17</v>
       </c>
@@ -18496,7 +18495,7 @@
         <v>0.74114040000000003</v>
       </c>
     </row>
-    <row r="904" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A904" t="s">
         <v>17</v>
       </c>
@@ -18516,7 +18515,7 @@
         <v>0.25377070000000002</v>
       </c>
     </row>
-    <row r="905" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A905" t="s">
         <v>17</v>
       </c>
@@ -18536,7 +18535,7 @@
         <v>0.73167059999999995</v>
       </c>
     </row>
-    <row r="906" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A906" t="s">
         <v>17</v>
       </c>
@@ -18596,7 +18595,7 @@
         <v>0.5059998</v>
       </c>
     </row>
-    <row r="909" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A909" t="s">
         <v>17</v>
       </c>
@@ -18616,7 +18615,7 @@
         <v>0.21230479999999999</v>
       </c>
     </row>
-    <row r="910" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A910" t="s">
         <v>17</v>
       </c>
@@ -18656,7 +18655,7 @@
         <v>0.54891559999999995</v>
       </c>
     </row>
-    <row r="912" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A912" t="s">
         <v>17</v>
       </c>
@@ -18676,7 +18675,7 @@
         <v>0.55412850000000002</v>
       </c>
     </row>
-    <row r="913" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A913" t="s">
         <v>17</v>
       </c>
@@ -18716,7 +18715,7 @@
         <v>0.42418660000000002</v>
       </c>
     </row>
-    <row r="915" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A915" t="s">
         <v>17</v>
       </c>
@@ -18736,7 +18735,7 @@
         <v>0.93971450000000001</v>
       </c>
     </row>
-    <row r="916" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A916" t="s">
         <v>17</v>
       </c>
@@ -18756,7 +18755,7 @@
         <v>0.75091229999999998</v>
       </c>
     </row>
-    <row r="917" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A917" t="s">
         <v>17</v>
       </c>
@@ -18776,7 +18775,7 @@
         <v>0.54145019999999999</v>
       </c>
     </row>
-    <row r="918" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A918" t="s">
         <v>17</v>
       </c>
@@ -18796,7 +18795,7 @@
         <v>0.4118252</v>
       </c>
     </row>
-    <row r="919" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A919" t="s">
         <v>17</v>
       </c>
@@ -18816,7 +18815,7 @@
         <v>0.62918209999999997</v>
       </c>
     </row>
-    <row r="920" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A920" t="s">
         <v>17</v>
       </c>
@@ -18836,7 +18835,7 @@
         <v>0.40749999999999997</v>
       </c>
     </row>
-    <row r="921" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A921" t="s">
         <v>17</v>
       </c>
@@ -18896,7 +18895,7 @@
         <v>0.77192539999999998</v>
       </c>
     </row>
-    <row r="924" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A924" t="s">
         <v>17</v>
       </c>
@@ -18936,7 +18935,7 @@
         <v>0.1399774</v>
       </c>
     </row>
-    <row r="926" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A926" t="s">
         <v>17</v>
       </c>
@@ -18956,7 +18955,7 @@
         <v>4.4816000000000002E-2</v>
       </c>
     </row>
-    <row r="927" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A927" t="s">
         <v>17</v>
       </c>
@@ -18996,7 +18995,7 @@
         <v>0.65286509999999998</v>
       </c>
     </row>
-    <row r="929" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A929" t="s">
         <v>17</v>
       </c>
@@ -19016,7 +19015,7 @@
         <v>0.2016377</v>
       </c>
     </row>
-    <row r="930" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A930" t="s">
         <v>17</v>
       </c>
@@ -19036,7 +19035,7 @@
         <v>0.23152610000000001</v>
       </c>
     </row>
-    <row r="931" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A931" t="s">
         <v>17</v>
       </c>
@@ -19076,7 +19075,7 @@
         <v>0.39642929999999998</v>
       </c>
     </row>
-    <row r="933" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A933" t="s">
         <v>17</v>
       </c>
@@ -19096,7 +19095,7 @@
         <v>0.9553857</v>
       </c>
     </row>
-    <row r="934" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A934" t="s">
         <v>17</v>
       </c>
@@ -19136,7 +19135,7 @@
         <v>0.51138669999999997</v>
       </c>
     </row>
-    <row r="936" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A936" t="s">
         <v>17</v>
       </c>
@@ -19156,7 +19155,7 @@
         <v>0.85875159999999995</v>
       </c>
     </row>
-    <row r="937" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A937" t="s">
         <v>17</v>
       </c>
@@ -19216,7 +19215,7 @@
         <v>0.1105916</v>
       </c>
     </row>
-    <row r="940" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A940" t="s">
         <v>17</v>
       </c>
@@ -19236,7 +19235,7 @@
         <v>0.91771040000000004</v>
       </c>
     </row>
-    <row r="941" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A941" t="s">
         <v>17</v>
       </c>
@@ -19256,7 +19255,7 @@
         <v>0.23746909999999999</v>
       </c>
     </row>
-    <row r="942" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A942" t="s">
         <v>17</v>
       </c>
@@ -19296,7 +19295,7 @@
         <v>0.30706290000000003</v>
       </c>
     </row>
-    <row r="944" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A944" t="s">
         <v>17</v>
       </c>
@@ -19316,7 +19315,7 @@
         <v>0.66872659999999995</v>
       </c>
     </row>
-    <row r="945" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A945" t="s">
         <v>17</v>
       </c>
@@ -19336,7 +19335,7 @@
         <v>0.64258700000000002</v>
       </c>
     </row>
-    <row r="946" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A946" t="s">
         <v>17</v>
       </c>
@@ -19356,7 +19355,7 @@
         <v>0.40855859999999999</v>
       </c>
     </row>
-    <row r="947" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A947" t="s">
         <v>17</v>
       </c>
@@ -19376,7 +19375,7 @@
         <v>0.16162969999999999</v>
       </c>
     </row>
-    <row r="948" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A948" t="s">
         <v>17</v>
       </c>
@@ -19416,7 +19415,7 @@
         <v>0.17172599999999999</v>
       </c>
     </row>
-    <row r="950" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A950" t="s">
         <v>17</v>
       </c>
@@ -19456,7 +19455,7 @@
         <v>0.41194029999999998</v>
       </c>
     </row>
-    <row r="952" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A952" t="s">
         <v>17</v>
       </c>
@@ -19496,7 +19495,7 @@
         <v>0.29432740000000002</v>
       </c>
     </row>
-    <row r="954" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A954" t="s">
         <v>17</v>
       </c>
@@ -19556,7 +19555,7 @@
         <v>0.36208790000000002</v>
       </c>
     </row>
-    <row r="957" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A957" t="s">
         <v>17</v>
       </c>
@@ -19576,7 +19575,7 @@
         <v>0.53549360000000001</v>
       </c>
     </row>
-    <row r="958" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A958" t="s">
         <v>17</v>
       </c>
@@ -19596,7 +19595,7 @@
         <v>0.96491190000000004</v>
       </c>
     </row>
-    <row r="959" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A959" t="s">
         <v>17</v>
       </c>
@@ -19616,7 +19615,7 @@
         <v>0.3582612</v>
       </c>
     </row>
-    <row r="960" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A960" t="s">
         <v>17</v>
       </c>
@@ -19636,7 +19635,7 @@
         <v>0.95390609999999998</v>
       </c>
     </row>
-    <row r="961" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A961" t="s">
         <v>17</v>
       </c>
@@ -19656,7 +19655,7 @@
         <v>0.86126579999999997</v>
       </c>
     </row>
-    <row r="962" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A962" t="s">
         <v>18</v>
       </c>
@@ -19716,7 +19715,7 @@
         <v>0.30419790000000002</v>
       </c>
     </row>
-    <row r="965" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A965" t="s">
         <v>18</v>
       </c>
@@ -19736,7 +19735,7 @@
         <v>0.58685180000000003</v>
       </c>
     </row>
-    <row r="966" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A966" t="s">
         <v>18</v>
       </c>
@@ -19756,7 +19755,7 @@
         <v>0.24598419999999999</v>
       </c>
     </row>
-    <row r="967" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A967" t="s">
         <v>18</v>
       </c>
@@ -19776,7 +19775,7 @@
         <v>0.76349880000000003</v>
       </c>
     </row>
-    <row r="968" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A968" t="s">
         <v>18</v>
       </c>
@@ -19796,7 +19795,7 @@
         <v>0.27374340000000003</v>
       </c>
     </row>
-    <row r="969" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A969" t="s">
         <v>18</v>
       </c>
@@ -19856,7 +19855,7 @@
         <v>0.72584660000000001</v>
       </c>
     </row>
-    <row r="972" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A972" t="s">
         <v>18</v>
       </c>
@@ -19876,7 +19875,7 @@
         <v>0.95203559999999998</v>
       </c>
     </row>
-    <row r="973" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A973" t="s">
         <v>18</v>
       </c>
@@ -19896,7 +19895,7 @@
         <v>0.40807159999999998</v>
       </c>
     </row>
-    <row r="974" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A974" t="s">
         <v>18</v>
       </c>
@@ -19916,7 +19915,7 @@
         <v>0.48217700000000002</v>
       </c>
     </row>
-    <row r="975" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A975" t="s">
         <v>18</v>
       </c>
@@ -19936,7 +19935,7 @@
         <v>0.69414509999999996</v>
       </c>
     </row>
-    <row r="976" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A976" t="s">
         <v>18</v>
       </c>
@@ -19956,7 +19955,7 @@
         <v>0.51395469999999999</v>
       </c>
     </row>
-    <row r="977" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A977" t="s">
         <v>18</v>
       </c>
@@ -19976,7 +19975,7 @@
         <v>0.32158809999999999</v>
       </c>
     </row>
-    <row r="978" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A978" t="s">
         <v>18</v>
       </c>
@@ -20016,7 +20015,7 @@
         <v>9.9891999999999995E-2</v>
       </c>
     </row>
-    <row r="980" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A980" t="s">
         <v>18</v>
       </c>
@@ -20036,7 +20035,7 @@
         <v>0.75218779999999996</v>
       </c>
     </row>
-    <row r="981" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A981" t="s">
         <v>18</v>
       </c>
@@ -20056,7 +20055,7 @@
         <v>9.5595399999999997E-2</v>
       </c>
     </row>
-    <row r="982" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A982" t="s">
         <v>18</v>
       </c>
@@ -20076,7 +20075,7 @@
         <v>0.85787460000000004</v>
       </c>
     </row>
-    <row r="983" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A983" t="s">
         <v>18</v>
       </c>
@@ -20116,7 +20115,7 @@
         <v>0.20676739999999999</v>
       </c>
     </row>
-    <row r="985" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A985" t="s">
         <v>18</v>
       </c>
@@ -20156,7 +20155,7 @@
         <v>0.33987149999999999</v>
       </c>
     </row>
-    <row r="987" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="987" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A987" t="s">
         <v>18</v>
       </c>
@@ -20176,7 +20175,7 @@
         <v>0.92772520000000003</v>
       </c>
     </row>
-    <row r="988" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="988" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A988" t="s">
         <v>18</v>
       </c>
@@ -20196,7 +20195,7 @@
         <v>5.2053099999999998E-2</v>
       </c>
     </row>
-    <row r="989" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="989" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A989" t="s">
         <v>18</v>
       </c>
@@ -20216,7 +20215,7 @@
         <v>0.45340320000000001</v>
       </c>
     </row>
-    <row r="990" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="990" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A990" t="s">
         <v>18</v>
       </c>
@@ -20276,7 +20275,7 @@
         <v>0.46035209999999999</v>
       </c>
     </row>
-    <row r="993" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A993" t="s">
         <v>18</v>
       </c>
@@ -20296,7 +20295,7 @@
         <v>0.95154729999999998</v>
       </c>
     </row>
-    <row r="994" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="994" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A994" t="s">
         <v>18</v>
       </c>
@@ -20316,7 +20315,7 @@
         <v>0.90371659999999998</v>
       </c>
     </row>
-    <row r="995" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="995" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A995" t="s">
         <v>18</v>
       </c>
@@ -20336,7 +20335,7 @@
         <v>0.33746900000000002</v>
       </c>
     </row>
-    <row r="996" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="996" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A996" t="s">
         <v>18</v>
       </c>
@@ -20356,7 +20355,7 @@
         <v>0.62856299999999998</v>
       </c>
     </row>
-    <row r="997" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="997" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A997" t="s">
         <v>18</v>
       </c>
@@ -20376,7 +20375,7 @@
         <v>3.6537100000000003E-2</v>
       </c>
     </row>
-    <row r="998" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="998" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A998" t="s">
         <v>18</v>
       </c>
@@ -20396,7 +20395,7 @@
         <v>0.84449339999999995</v>
       </c>
     </row>
-    <row r="999" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="999" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A999" t="s">
         <v>18</v>
       </c>
@@ -20416,7 +20415,7 @@
         <v>0.46581869999999997</v>
       </c>
     </row>
-    <row r="1000" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1000" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1000" t="s">
         <v>18</v>
       </c>
@@ -20436,7 +20435,7 @@
         <v>0.81292629999999999</v>
       </c>
     </row>
-    <row r="1001" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1001" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1001" t="s">
         <v>18</v>
       </c>
@@ -20476,7 +20475,7 @@
         <v>0.2241766</v>
       </c>
     </row>
-    <row r="1003" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1003" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1003" t="s">
         <v>18</v>
       </c>
@@ -20536,7 +20535,7 @@
         <v>0.10265630000000001</v>
       </c>
     </row>
-    <row r="1006" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1006" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1006" t="s">
         <v>18</v>
       </c>
@@ -20556,7 +20555,7 @@
         <v>0.2976992</v>
       </c>
     </row>
-    <row r="1007" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1007" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1007" t="s">
         <v>18</v>
       </c>
@@ -20616,7 +20615,7 @@
         <v>9.1297699999999996E-2</v>
       </c>
     </row>
-    <row r="1010" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1010" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1010" t="s">
         <v>18</v>
       </c>
@@ -20636,7 +20635,7 @@
         <v>0.4872901</v>
       </c>
     </row>
-    <row r="1011" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1011" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1011" t="s">
         <v>18</v>
       </c>
@@ -20656,7 +20655,7 @@
         <v>0.81187240000000005</v>
       </c>
     </row>
-    <row r="1012" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1012" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1012" t="s">
         <v>18</v>
       </c>
@@ -20676,7 +20675,7 @@
         <v>0.57937320000000003</v>
       </c>
     </row>
-    <row r="1013" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1013" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1013" t="s">
         <v>18</v>
       </c>
@@ -20696,7 +20695,7 @@
         <v>8.7171200000000004E-2</v>
       </c>
     </row>
-    <row r="1014" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1014" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1014" t="s">
         <v>18</v>
       </c>
@@ -20736,7 +20735,7 @@
         <v>0.16467680000000001</v>
       </c>
     </row>
-    <row r="1016" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1016" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1016" t="s">
         <v>18</v>
       </c>
@@ -20796,7 +20795,7 @@
         <v>0.95340239999999998</v>
       </c>
     </row>
-    <row r="1019" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1019" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1019" t="s">
         <v>18</v>
       </c>
@@ -20816,7 +20815,7 @@
         <v>0.1316177</v>
       </c>
     </row>
-    <row r="1020" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1020" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1020" t="s">
         <v>18</v>
       </c>
@@ -20836,7 +20835,7 @@
         <v>0.88056100000000004</v>
       </c>
     </row>
-    <row r="1021" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1021" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1021" t="s">
         <v>18</v>
       </c>
@@ -20856,7 +20855,7 @@
         <v>0.12751029999999999</v>
       </c>
     </row>
-    <row r="1022" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1022" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1022" t="s">
         <v>18</v>
       </c>
@@ -20876,7 +20875,7 @@
         <v>0.34912599999999999</v>
       </c>
     </row>
-    <row r="1023" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1023" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1023" t="s">
         <v>18</v>
       </c>
@@ -20896,7 +20895,7 @@
         <v>0.27444869999999999</v>
       </c>
     </row>
-    <row r="1024" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1024" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1024" t="s">
         <v>18</v>
       </c>
@@ -20916,7 +20915,7 @@
         <v>0.85161799999999999</v>
       </c>
     </row>
-    <row r="1025" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1025" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1025" t="s">
         <v>18</v>
       </c>
@@ -20936,7 +20935,7 @@
         <v>0.63292179999999998</v>
       </c>
     </row>
-    <row r="1026" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1026" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1026" t="s">
         <v>18</v>
       </c>
@@ -20996,7 +20995,7 @@
         <v>0.91728549999999998</v>
       </c>
     </row>
-    <row r="1029" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1029" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1029" t="s">
         <v>18</v>
       </c>
@@ -21016,7 +21015,7 @@
         <v>0.47312070000000001</v>
       </c>
     </row>
-    <row r="1030" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1030" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1030" t="s">
         <v>18</v>
       </c>
@@ -21036,7 +21035,7 @@
         <v>0.77548720000000004</v>
       </c>
     </row>
-    <row r="1031" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1031" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1031" t="s">
         <v>18</v>
       </c>
@@ -21056,7 +21055,7 @@
         <v>0.59430249999999996</v>
       </c>
     </row>
-    <row r="1032" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1032" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1032" t="s">
         <v>18</v>
       </c>
@@ -21076,7 +21075,7 @@
         <v>0.92365140000000001</v>
       </c>
     </row>
-    <row r="1033" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1033" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1033" t="s">
         <v>18</v>
       </c>
@@ -21116,7 +21115,7 @@
         <v>0.42084929999999998</v>
       </c>
     </row>
-    <row r="1035" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1035" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1035" t="s">
         <v>18</v>
       </c>
@@ -21136,7 +21135,7 @@
         <v>0.39144689999999999</v>
       </c>
     </row>
-    <row r="1036" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1036" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1036" t="s">
         <v>18</v>
       </c>
@@ -21156,7 +21155,7 @@
         <v>0.81700119999999998</v>
       </c>
     </row>
-    <row r="1037" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1037" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1037" t="s">
         <v>18</v>
       </c>
@@ -21176,7 +21175,7 @@
         <v>0.95642360000000004</v>
       </c>
     </row>
-    <row r="1038" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1038" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1038" t="s">
         <v>18</v>
       </c>
@@ -21196,7 +21195,7 @@
         <v>0.33193739999999999</v>
       </c>
     </row>
-    <row r="1039" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1039" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1039" t="s">
         <v>18</v>
       </c>
@@ -21256,7 +21255,7 @@
         <v>0.59885690000000003</v>
       </c>
     </row>
-    <row r="1042" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1042" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1042" t="s">
         <v>18</v>
       </c>
@@ -21276,7 +21275,7 @@
         <v>0.75665519999999997</v>
       </c>
     </row>
-    <row r="1043" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1043" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1043" t="s">
         <v>18</v>
       </c>
@@ -21296,7 +21295,7 @@
         <v>0.31003150000000002</v>
       </c>
     </row>
-    <row r="1044" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1044" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1044" t="s">
         <v>18</v>
       </c>
@@ -21316,7 +21315,7 @@
         <v>0.6627769</v>
       </c>
     </row>
-    <row r="1045" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1045" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1045" t="s">
         <v>18</v>
       </c>
@@ -21336,7 +21335,7 @@
         <v>0.22733039999999999</v>
       </c>
     </row>
-    <row r="1046" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1046" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1046" t="s">
         <v>18</v>
       </c>
@@ -21376,7 +21375,7 @@
         <v>0.9680647</v>
       </c>
     </row>
-    <row r="1048" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1048" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1048" t="s">
         <v>18</v>
       </c>
@@ -21396,7 +21395,7 @@
         <v>0.30773990000000001</v>
       </c>
     </row>
-    <row r="1049" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1049" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1049" t="s">
         <v>18</v>
       </c>
@@ -21436,7 +21435,7 @@
         <v>0.72460449999999998</v>
       </c>
     </row>
-    <row r="1051" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1051" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1051" t="s">
         <v>18</v>
       </c>
@@ -21456,7 +21455,7 @@
         <v>0.69977860000000003</v>
       </c>
     </row>
-    <row r="1052" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1052" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1052" t="s">
         <v>18</v>
       </c>
@@ -21476,7 +21475,7 @@
         <v>0.4716438</v>
       </c>
     </row>
-    <row r="1053" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1053" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1053" t="s">
         <v>18</v>
       </c>
@@ -21496,7 +21495,7 @@
         <v>0.82971779999999995</v>
       </c>
     </row>
-    <row r="1054" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1054" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1054" t="s">
         <v>18</v>
       </c>
@@ -21516,7 +21515,7 @@
         <v>0.68132800000000004</v>
       </c>
     </row>
-    <row r="1055" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1055" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1055" t="s">
         <v>18</v>
       </c>
@@ -21536,7 +21535,7 @@
         <v>0.73898540000000001</v>
       </c>
     </row>
-    <row r="1056" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1056" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1056" t="s">
         <v>18</v>
       </c>
@@ -21556,7 +21555,7 @@
         <v>0.68773519999999999</v>
       </c>
     </row>
-    <row r="1057" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1057" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1057" t="s">
         <v>18</v>
       </c>
@@ -21656,7 +21655,7 @@
         <v>0.80287269999999999</v>
       </c>
     </row>
-    <row r="1062" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1062" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1062" t="s">
         <v>18</v>
       </c>
@@ -21676,7 +21675,7 @@
         <v>5.3468799999999997E-2</v>
       </c>
     </row>
-    <row r="1063" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1063" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1063" t="s">
         <v>18</v>
       </c>
@@ -21696,7 +21695,7 @@
         <v>0.74248570000000003</v>
       </c>
     </row>
-    <row r="1064" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1064" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1064" t="s">
         <v>18</v>
       </c>
@@ -21716,7 +21715,7 @@
         <v>0.91718560000000005</v>
       </c>
     </row>
-    <row r="1065" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1065" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1065" t="s">
         <v>18</v>
       </c>
@@ -21756,7 +21755,7 @@
         <v>0.88617489999999999</v>
       </c>
     </row>
-    <row r="1067" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1067" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1067" t="s">
         <v>18</v>
       </c>
@@ -21776,7 +21775,7 @@
         <v>0.91747020000000001</v>
       </c>
     </row>
-    <row r="1068" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1068" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1068" t="s">
         <v>18</v>
       </c>
@@ -21796,7 +21795,7 @@
         <v>0.64849880000000004</v>
       </c>
     </row>
-    <row r="1069" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1069" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1069" t="s">
         <v>18</v>
       </c>
@@ -21836,7 +21835,7 @@
         <v>0.17656549999999999</v>
       </c>
     </row>
-    <row r="1071" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1071" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1071" t="s">
         <v>18</v>
       </c>
@@ -21856,7 +21855,7 @@
         <v>0.65439199999999997</v>
       </c>
     </row>
-    <row r="1072" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1072" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1072" t="s">
         <v>18</v>
       </c>
@@ -21876,7 +21875,7 @@
         <v>0.40852179999999999</v>
       </c>
     </row>
-    <row r="1073" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1073" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1073" t="s">
         <v>18</v>
       </c>
@@ -21896,7 +21895,7 @@
         <v>0.22746459999999999</v>
       </c>
     </row>
-    <row r="1074" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1074" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1074" t="s">
         <v>18</v>
       </c>
@@ -21916,7 +21915,7 @@
         <v>0.56363509999999994</v>
       </c>
     </row>
-    <row r="1075" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1075" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1075" t="s">
         <v>18</v>
       </c>
@@ -21936,7 +21935,7 @@
         <v>0.7114393</v>
       </c>
     </row>
-    <row r="1076" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1076" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1076" t="s">
         <v>18</v>
       </c>
@@ -21956,7 +21955,7 @@
         <v>0.25338630000000001</v>
       </c>
     </row>
-    <row r="1077" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1077" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1077" t="s">
         <v>18</v>
       </c>
@@ -21976,7 +21975,7 @@
         <v>0.86159649999999999</v>
       </c>
     </row>
-    <row r="1078" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1078" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1078" t="s">
         <v>18</v>
       </c>
@@ -22016,7 +22015,7 @@
         <v>0.25738729999999999</v>
       </c>
     </row>
-    <row r="1080" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1080" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1080" t="s">
         <v>18</v>
       </c>
@@ -22036,7 +22035,7 @@
         <v>0.20220949999999999</v>
       </c>
     </row>
-    <row r="1081" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1081" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1081" t="s">
         <v>18</v>
       </c>
@@ -22056,7 +22055,7 @@
         <v>0.1498506</v>
       </c>
     </row>
-    <row r="1082" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1082" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1082" t="s">
         <v>19</v>
       </c>
@@ -22076,7 +22075,7 @@
         <v>0.54259310000000005</v>
       </c>
     </row>
-    <row r="1083" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1083" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1083" t="s">
         <v>19</v>
       </c>
@@ -22096,7 +22095,7 @@
         <v>0.65142</v>
       </c>
     </row>
-    <row r="1084" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1084" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1084" t="s">
         <v>19</v>
       </c>
@@ -22116,7 +22115,7 @@
         <v>3.0143199999999998E-2</v>
       </c>
     </row>
-    <row r="1085" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1085" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1085" t="s">
         <v>19</v>
       </c>
@@ -22136,7 +22135,7 @@
         <v>0.99097310000000005</v>
       </c>
     </row>
-    <row r="1086" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1086" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1086" t="s">
         <v>19</v>
       </c>
@@ -22176,7 +22175,7 @@
         <v>0.44770589999999999</v>
       </c>
     </row>
-    <row r="1088" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1088" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1088" t="s">
         <v>19</v>
       </c>
@@ -22196,7 +22195,7 @@
         <v>0.61291589999999996</v>
       </c>
     </row>
-    <row r="1089" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1089" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1089" t="s">
         <v>19</v>
       </c>
@@ -22216,7 +22215,7 @@
         <v>0.50976080000000001</v>
       </c>
     </row>
-    <row r="1090" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1090" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1090" t="s">
         <v>19</v>
       </c>
@@ -22256,7 +22255,7 @@
         <v>5.3162899999999999E-2</v>
       </c>
     </row>
-    <row r="1092" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1092" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1092" t="s">
         <v>19</v>
       </c>
@@ -22276,7 +22275,7 @@
         <v>0.41949930000000002</v>
       </c>
     </row>
-    <row r="1093" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1093" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1093" t="s">
         <v>19</v>
       </c>
@@ -22316,7 +22315,7 @@
         <v>0.84982709999999995</v>
       </c>
     </row>
-    <row r="1095" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1095" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1095" t="s">
         <v>19</v>
       </c>
@@ -22356,7 +22355,7 @@
         <v>0.37910300000000002</v>
       </c>
     </row>
-    <row r="1097" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1097" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1097" t="s">
         <v>19</v>
       </c>
@@ -22376,7 +22375,7 @@
         <v>0.37032969999999998</v>
       </c>
     </row>
-    <row r="1098" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1098" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1098" t="s">
         <v>19</v>
       </c>
@@ -22416,7 +22415,7 @@
         <v>2.6207000000000001E-2</v>
       </c>
     </row>
-    <row r="1100" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1100" t="s">
         <v>19</v>
       </c>
@@ -22436,7 +22435,7 @@
         <v>0.1729009</v>
       </c>
     </row>
-    <row r="1101" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1101" t="s">
         <v>19</v>
       </c>
@@ -22476,7 +22475,7 @@
         <v>0.14012189999999999</v>
       </c>
     </row>
-    <row r="1103" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1103" t="s">
         <v>19</v>
       </c>
@@ -22496,7 +22495,7 @@
         <v>0.25884040000000003</v>
       </c>
     </row>
-    <row r="1104" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1104" t="s">
         <v>19</v>
       </c>
@@ -22516,7 +22515,7 @@
         <v>0.1676115</v>
       </c>
     </row>
-    <row r="1105" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1105" t="s">
         <v>19</v>
       </c>
@@ -22596,7 +22595,7 @@
         <v>0.39285160000000002</v>
       </c>
     </row>
-    <row r="1109" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1109" t="s">
         <v>19</v>
       </c>
@@ -22616,7 +22615,7 @@
         <v>0.42784919999999999</v>
       </c>
     </row>
-    <row r="1110" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1110" t="s">
         <v>19</v>
       </c>
@@ -22656,7 +22655,7 @@
         <v>0.89984070000000005</v>
       </c>
     </row>
-    <row r="1112" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1112" t="s">
         <v>19</v>
       </c>
@@ -22676,7 +22675,7 @@
         <v>0.25308969999999997</v>
       </c>
     </row>
-    <row r="1113" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1113" t="s">
         <v>19</v>
       </c>
@@ -22696,7 +22695,7 @@
         <v>0.28067690000000001</v>
       </c>
     </row>
-    <row r="1114" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1114" t="s">
         <v>19</v>
       </c>
@@ -22736,7 +22735,7 @@
         <v>0.86428910000000003</v>
       </c>
     </row>
-    <row r="1116" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1116" t="s">
         <v>19</v>
       </c>
@@ -22776,7 +22775,7 @@
         <v>0.50697530000000002</v>
       </c>
     </row>
-    <row r="1118" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1118" t="s">
         <v>19</v>
       </c>
@@ -22796,7 +22795,7 @@
         <v>0.1151628</v>
       </c>
     </row>
-    <row r="1119" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1119" t="s">
         <v>19</v>
       </c>
@@ -22816,7 +22815,7 @@
         <v>0.4903517</v>
       </c>
     </row>
-    <row r="1120" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1120" t="s">
         <v>19</v>
       </c>
@@ -22896,7 +22895,7 @@
         <v>7.0031700000000002E-2</v>
       </c>
     </row>
-    <row r="1124" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1124" t="s">
         <v>19</v>
       </c>
@@ -22916,7 +22915,7 @@
         <v>0.89825619999999995</v>
       </c>
     </row>
-    <row r="1125" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1125" t="s">
         <v>19</v>
       </c>
@@ -22936,7 +22935,7 @@
         <v>0.73144609999999999</v>
       </c>
     </row>
-    <row r="1126" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1126" t="s">
         <v>19</v>
       </c>
@@ -22956,7 +22955,7 @@
         <v>0.78704220000000003</v>
       </c>
     </row>
-    <row r="1127" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1127" t="s">
         <v>19</v>
       </c>
@@ -22976,7 +22975,7 @@
         <v>0.31847609999999998</v>
       </c>
     </row>
-    <row r="1128" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1128" t="s">
         <v>19</v>
       </c>
@@ -23016,7 +23015,7 @@
         <v>0.41374290000000002</v>
       </c>
     </row>
-    <row r="1130" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1130" t="s">
         <v>19</v>
       </c>
@@ -23036,7 +23035,7 @@
         <v>0.50009239999999999</v>
       </c>
     </row>
-    <row r="1131" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1131" t="s">
         <v>19</v>
       </c>
@@ -23056,7 +23055,7 @@
         <v>0.96519239999999995</v>
       </c>
     </row>
-    <row r="1132" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1132" t="s">
         <v>19</v>
       </c>
@@ -23076,7 +23075,7 @@
         <v>0.96517969999999997</v>
       </c>
     </row>
-    <row r="1133" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1133" t="s">
         <v>19</v>
       </c>
@@ -23096,7 +23095,7 @@
         <v>0.2608761</v>
       </c>
     </row>
-    <row r="1134" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1134" t="s">
         <v>19</v>
       </c>
@@ -23116,7 +23115,7 @@
         <v>6.8208000000000005E-2</v>
       </c>
     </row>
-    <row r="1135" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1135" t="s">
         <v>19</v>
       </c>
@@ -23136,7 +23135,7 @@
         <v>0.18913360000000001</v>
       </c>
     </row>
-    <row r="1136" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1136" t="s">
         <v>19</v>
       </c>
@@ -23156,7 +23155,7 @@
         <v>5.4286099999999997E-2</v>
       </c>
     </row>
-    <row r="1137" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1137" t="s">
         <v>19</v>
       </c>
@@ -23176,7 +23175,7 @@
         <v>0.78753090000000003</v>
       </c>
     </row>
-    <row r="1138" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1138" t="s">
         <v>19</v>
       </c>
@@ -23216,7 +23215,7 @@
         <v>0.16521849999999999</v>
       </c>
     </row>
-    <row r="1140" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1140" t="s">
         <v>19</v>
       </c>
@@ -23256,7 +23255,7 @@
         <v>1.14921E-2</v>
       </c>
     </row>
-    <row r="1142" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1142" t="s">
         <v>19</v>
       </c>
@@ -23296,7 +23295,7 @@
         <v>0.27987430000000002</v>
       </c>
     </row>
-    <row r="1144" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1144" t="s">
         <v>19</v>
       </c>
@@ -23316,7 +23315,7 @@
         <v>0.13567170000000001</v>
       </c>
     </row>
-    <row r="1145" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1145" t="s">
         <v>19</v>
       </c>
@@ -23336,7 +23335,7 @@
         <v>0.87591810000000003</v>
       </c>
     </row>
-    <row r="1146" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1146" t="s">
         <v>19</v>
       </c>
@@ -23356,7 +23355,7 @@
         <v>0.10605150000000001</v>
       </c>
     </row>
-    <row r="1147" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1147" t="s">
         <v>19</v>
       </c>
@@ -23376,7 +23375,7 @@
         <v>0.14270060000000001</v>
       </c>
     </row>
-    <row r="1148" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1148" t="s">
         <v>19</v>
       </c>
@@ -23396,7 +23395,7 @@
         <v>0.15218039999999999</v>
       </c>
     </row>
-    <row r="1149" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1149" t="s">
         <v>19</v>
       </c>
@@ -23416,7 +23415,7 @@
         <v>0.53153019999999995</v>
       </c>
     </row>
-    <row r="1150" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1150" t="s">
         <v>19</v>
       </c>
@@ -23436,7 +23435,7 @@
         <v>0.27699360000000001</v>
       </c>
     </row>
-    <row r="1151" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1151" t="s">
         <v>19</v>
       </c>
@@ -23476,7 +23475,7 @@
         <v>0.8865828</v>
       </c>
     </row>
-    <row r="1153" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1153" t="s">
         <v>19</v>
       </c>
@@ -23496,7 +23495,7 @@
         <v>0.44462699999999999</v>
       </c>
     </row>
-    <row r="1154" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1154" t="s">
         <v>19</v>
       </c>
@@ -23516,7 +23515,7 @@
         <v>0.96241639999999995</v>
       </c>
     </row>
-    <row r="1155" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1155" t="s">
         <v>19</v>
       </c>
@@ -23536,7 +23535,7 @@
         <v>0.3909532</v>
       </c>
     </row>
-    <row r="1156" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1156" t="s">
         <v>19</v>
       </c>
@@ -23556,7 +23555,7 @@
         <v>0.74810650000000001</v>
       </c>
     </row>
-    <row r="1157" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1157" t="s">
         <v>19</v>
       </c>
@@ -23576,7 +23575,7 @@
         <v>0.5826614</v>
       </c>
     </row>
-    <row r="1158" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1158" t="s">
         <v>19</v>
       </c>
@@ -23596,7 +23595,7 @@
         <v>0.46944330000000001</v>
       </c>
     </row>
-    <row r="1159" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1159" t="s">
         <v>19</v>
       </c>
@@ -23656,7 +23655,7 @@
         <v>0.93429739999999994</v>
       </c>
     </row>
-    <row r="1162" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1162" t="s">
         <v>19</v>
       </c>
@@ -23676,7 +23675,7 @@
         <v>0.38897670000000001</v>
       </c>
     </row>
-    <row r="1163" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1163" t="s">
         <v>19</v>
       </c>
@@ -23696,7 +23695,7 @@
         <v>0.54862420000000001</v>
       </c>
     </row>
-    <row r="1164" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1164" t="s">
         <v>19</v>
       </c>
@@ -23716,7 +23715,7 @@
         <v>0.99874479999999999</v>
       </c>
     </row>
-    <row r="1165" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1165" t="s">
         <v>19</v>
       </c>
@@ -23736,7 +23735,7 @@
         <v>0.26798250000000001</v>
       </c>
     </row>
-    <row r="1166" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1166" t="s">
         <v>19</v>
       </c>
@@ -23756,7 +23755,7 @@
         <v>0.97116040000000003</v>
       </c>
     </row>
-    <row r="1167" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1167" t="s">
         <v>19</v>
       </c>
@@ -23796,7 +23795,7 @@
         <v>0.37582529999999997</v>
       </c>
     </row>
-    <row r="1169" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1169" t="s">
         <v>19</v>
       </c>
@@ -23856,7 +23855,7 @@
         <v>0.75919749999999997</v>
       </c>
     </row>
-    <row r="1172" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1172" t="s">
         <v>19</v>
       </c>
@@ -23876,7 +23875,7 @@
         <v>0.8900072</v>
       </c>
     </row>
-    <row r="1173" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1173" t="s">
         <v>19</v>
       </c>
@@ -23896,7 +23895,7 @@
         <v>0.75090060000000003</v>
       </c>
     </row>
-    <row r="1174" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1174" t="s">
         <v>19</v>
       </c>
@@ -23916,7 +23915,7 @@
         <v>0.51889439999999998</v>
       </c>
     </row>
-    <row r="1175" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1175" t="s">
         <v>19</v>
       </c>
@@ -23936,7 +23935,7 @@
         <v>0.417717</v>
       </c>
     </row>
-    <row r="1176" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1176" t="s">
         <v>19</v>
       </c>
@@ -23976,7 +23975,7 @@
         <v>0.73317889999999997</v>
       </c>
     </row>
-    <row r="1178" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1178" t="s">
         <v>19</v>
       </c>
@@ -23996,7 +23995,7 @@
         <v>0.57581599999999999</v>
       </c>
     </row>
-    <row r="1179" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1179" t="s">
         <v>19</v>
       </c>
@@ -24036,7 +24035,7 @@
         <v>0.38997549999999997</v>
       </c>
     </row>
-    <row r="1181" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1181" t="s">
         <v>19</v>
       </c>
@@ -24056,7 +24055,7 @@
         <v>0.53290990000000005</v>
       </c>
     </row>
-    <row r="1182" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1182" t="s">
         <v>19</v>
       </c>
@@ -24076,7 +24075,7 @@
         <v>0.98144359999999997</v>
       </c>
     </row>
-    <row r="1183" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1183" t="s">
         <v>19</v>
       </c>
@@ -24116,7 +24115,7 @@
         <v>0.1519366</v>
       </c>
     </row>
-    <row r="1185" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1185" t="s">
         <v>19</v>
       </c>
@@ -24136,7 +24135,7 @@
         <v>0.27248600000000001</v>
       </c>
     </row>
-    <row r="1186" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1186" t="s">
         <v>19</v>
       </c>
@@ -24156,7 +24155,7 @@
         <v>0.37708160000000002</v>
       </c>
     </row>
-    <row r="1187" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1187" t="s">
         <v>19</v>
       </c>
@@ -24176,7 +24175,7 @@
         <v>4.2515799999999999E-2</v>
       </c>
     </row>
-    <row r="1188" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1188" t="s">
         <v>19</v>
       </c>
@@ -24196,7 +24195,7 @@
         <v>0.52813390000000004</v>
       </c>
     </row>
-    <row r="1189" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1189" t="s">
         <v>19</v>
       </c>
@@ -24216,7 +24215,7 @@
         <v>7.7397499999999994E-2</v>
       </c>
     </row>
-    <row r="1190" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1190" t="s">
         <v>19</v>
       </c>
@@ -24236,7 +24235,7 @@
         <v>0.63177530000000004</v>
       </c>
     </row>
-    <row r="1191" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1191" t="s">
         <v>19</v>
       </c>
@@ -24256,7 +24255,7 @@
         <v>0.86765320000000001</v>
       </c>
     </row>
-    <row r="1192" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1192" t="s">
         <v>19</v>
       </c>
@@ -24296,7 +24295,7 @@
         <v>0.63298100000000002</v>
       </c>
     </row>
-    <row r="1194" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1194" t="s">
         <v>19</v>
       </c>
@@ -24336,7 +24335,7 @@
         <v>0.31932569999999999</v>
       </c>
     </row>
-    <row r="1196" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1196" t="s">
         <v>19</v>
       </c>
@@ -24356,7 +24355,7 @@
         <v>0.99306019999999995</v>
       </c>
     </row>
-    <row r="1197" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1197" t="s">
         <v>19</v>
       </c>
@@ -24396,7 +24395,7 @@
         <v>0.77066129999999999</v>
       </c>
     </row>
-    <row r="1199" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1199" t="s">
         <v>19</v>
       </c>
@@ -24416,7 +24415,7 @@
         <v>0.32604860000000002</v>
       </c>
     </row>
-    <row r="1200" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1200" t="s">
         <v>19</v>
       </c>
@@ -24436,7 +24435,7 @@
         <v>0.40532170000000001</v>
       </c>
     </row>
-    <row r="1201" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1201" t="s">
         <v>19</v>
       </c>
@@ -24457,23 +24456,17 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1201">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="BarChart - white"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F1201"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F299"/>
+  <dimension ref="A1:F303"/>
   <sheetViews>
-    <sheetView topLeftCell="A283" workbookViewId="0">
-      <selection activeCell="D300" sqref="D300"/>
+    <sheetView tabSelected="1" topLeftCell="A275" workbookViewId="0">
+      <selection activeCell="D304" sqref="D304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30438,6 +30431,22 @@
         <v>1.5252752165506769</v>
       </c>
     </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D301">
+        <f>AVERAGE(D2:D297)</f>
+        <v>1.5252752165506769</v>
+      </c>
+      <c r="F301">
+        <f xml:space="preserve"> _xlfn.STDEV.S(D2:D297)</f>
+        <v>1.3716947190994806</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D303">
+        <f>_xlfn.CONFIDENCE.T(0.05,F301,296)</f>
+        <v>0.15690801064709295</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -30445,10 +30454,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F303"/>
+  <dimension ref="A1:F307"/>
   <sheetViews>
-    <sheetView topLeftCell="A274" workbookViewId="0">
-      <selection activeCell="D304" sqref="D304"/>
+    <sheetView topLeftCell="A278" workbookViewId="0">
+      <selection activeCell="D308" sqref="D308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -36493,6 +36502,22 @@
         <v>1.4921965059666662</v>
       </c>
     </row>
+    <row r="305" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D305">
+        <f>AVERAGE(D2:D301)</f>
+        <v>1.4921965059666662</v>
+      </c>
+      <c r="E305">
+        <f>_xlfn.STDEV.S(D2:D301)</f>
+        <v>1.4139439430408267</v>
+      </c>
+    </row>
+    <row r="307" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D307">
+        <f>_xlfn.CONFIDENCE.T(0.05,E305,300)</f>
+        <v>0.16065015089316811</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -36500,10 +36525,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F303"/>
+  <dimension ref="A1:F307"/>
   <sheetViews>
-    <sheetView topLeftCell="A274" workbookViewId="0">
-      <selection activeCell="D304" sqref="D304"/>
+    <sheetView topLeftCell="A292" workbookViewId="0">
+      <selection activeCell="D308" sqref="D308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -42548,6 +42573,22 @@
         <v>1.45646343172</v>
       </c>
     </row>
+    <row r="305" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D305">
+        <f>AVERAGE(D2:D301)</f>
+        <v>1.45646343172</v>
+      </c>
+      <c r="E305">
+        <f>_xlfn.STDEV.S(D2:D301)</f>
+        <v>1.4937764251344021</v>
+      </c>
+    </row>
+    <row r="307" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D307">
+        <f>_xlfn.CONFIDENCE.T(0.05,E305,300)</f>
+        <v>0.16972059555798796</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -42555,10 +42596,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F307"/>
+  <dimension ref="A1:F310"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A278" workbookViewId="0">
-      <selection activeCell="O293" sqref="O293"/>
+    <sheetView topLeftCell="A283" workbookViewId="0">
+      <selection activeCell="D311" sqref="D311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -48677,6 +48718,22 @@
         <f>D306/304</f>
         <v>1.6430927560953947</v>
       </c>
+      <c r="F307">
+        <f>_xlfn.STDEV.S(D2:D305)</f>
+        <v>1.4009972546502076</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D308">
+        <f>AVERAGE(D2:D305)</f>
+        <v>1.6430927560953947</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D310">
+        <f>_xlfn.CONFIDENCE.T(0.05,F307,304)</f>
+        <v>0.15811998593535773</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
